--- a/data/trans_orig/P1411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>6879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2868</v>
+        <v>2845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14368</v>
+        <v>14768</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02333984919975417</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00973142764939244</v>
+        <v>0.009652643376231437</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04874951859513493</v>
+        <v>0.05010573695530779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>4315</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10724</v>
+        <v>9945</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01502214066896626</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003777260433350819</v>
+        <v>0.003754026985866129</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0373352323380468</v>
+        <v>0.0346226157688193</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>11194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6124</v>
+        <v>5497</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21116</v>
+        <v>20899</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01923454017552683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0105224048256909</v>
+        <v>0.009445934874752815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03628359180667159</v>
+        <v>0.03590971733066618</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>287859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>280370</v>
+        <v>279970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291870</v>
+        <v>291893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9766601508002458</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9512504814048656</v>
+        <v>0.9498942630446923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9902685723506075</v>
+        <v>0.9903473566237686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -834,19 +834,19 @@
         <v>282930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276521</v>
+        <v>277300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286160</v>
+        <v>286167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9849778593310338</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9626647676619532</v>
+        <v>0.9653773842311806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9962227395666491</v>
+        <v>0.9962459730141339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>528</v>
@@ -855,19 +855,19 @@
         <v>570789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560867</v>
+        <v>561084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575859</v>
+        <v>576486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9807654598244732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9637164081933284</v>
+        <v>0.9640902826693337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9894775951743091</v>
+        <v>0.9905540651252472</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>7306</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3147</v>
+        <v>3070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14921</v>
+        <v>13663</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01445134157762559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006224727497149387</v>
+        <v>0.00607332905067594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0295151421521207</v>
+        <v>0.02702680993812913</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -980,19 +980,19 @@
         <v>5375</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10888</v>
+        <v>11981</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01026147994363349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003895194809678402</v>
+        <v>0.00395190971761207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02078702674484012</v>
+        <v>0.02287440231534527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1001,19 +1001,19 @@
         <v>12680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6481</v>
+        <v>6595</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21978</v>
+        <v>21194</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01231929125574662</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006296510566652228</v>
+        <v>0.006407663924678786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02135292005121134</v>
+        <v>0.02059055399878896</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>498221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490606</v>
+        <v>491864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502380</v>
+        <v>502457</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9855486584223744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9704848578478793</v>
+        <v>0.9729731900618709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937752725028506</v>
+        <v>0.9939266709493241</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>475</v>
@@ -1051,19 +1051,19 @@
         <v>518390</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>512877</v>
+        <v>511784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521725</v>
+        <v>521695</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9897385200563665</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9792129732551599</v>
+        <v>0.9771255976846549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9961048051903216</v>
+        <v>0.9960480902823879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -1072,19 +1072,19 @@
         <v>1016612</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1007314</v>
+        <v>1008098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1022811</v>
+        <v>1022697</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9876807087442534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9786470799487886</v>
+        <v>0.979409446001211</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9937034894333477</v>
+        <v>0.9935923360753212</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>5072</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1973</v>
+        <v>1990</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11295</v>
+        <v>11176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01565181477624917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006088212993777704</v>
+        <v>0.00614239621706486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03485692247366629</v>
+        <v>0.03448828701359995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7391</v>
+        <v>6604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006184810342802466</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02167286504570677</v>
+        <v>0.01936459249823401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1218,19 +1218,19 @@
         <v>7181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3042</v>
+        <v>3092</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14308</v>
+        <v>15184</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01079750274442865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00457463284258596</v>
+        <v>0.004649821096524159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0215132020617888</v>
+        <v>0.0228314256430909</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>318974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312751</v>
+        <v>312870</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322073</v>
+        <v>322056</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9843481852237508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9651430775263337</v>
+        <v>0.9655117129863998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9939117870062223</v>
+        <v>0.9938576037829352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -1268,7 +1268,7 @@
         <v>338911</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>333629</v>
+        <v>334416</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -1277,7 +1277,7 @@
         <v>0.9938151896571975</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9783271349542932</v>
+        <v>0.9806354075017678</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1289,19 +1289,19 @@
         <v>657885</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650758</v>
+        <v>649882</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662024</v>
+        <v>661974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9892024972555713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9784867979382111</v>
+        <v>0.9771685743569076</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.995425367157414</v>
+        <v>0.9953501789034759</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>14046</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7482</v>
+        <v>7541</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23515</v>
+        <v>24458</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03755816258751606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0200055324304177</v>
+        <v>0.02016477160993307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06287796588106347</v>
+        <v>0.06539850863666677</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1414,19 +1414,19 @@
         <v>7055</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2949</v>
+        <v>3036</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13553</v>
+        <v>14123</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01813804008918619</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007581570250157678</v>
+        <v>0.007806816012146147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03484483860958813</v>
+        <v>0.03630989740590855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1435,19 +1435,19 @@
         <v>21101</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12717</v>
+        <v>12896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33404</v>
+        <v>33080</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02765758823975046</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01666831415397887</v>
+        <v>0.01690348922060644</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04378394645182603</v>
+        <v>0.043358376668008</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>359936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>350467</v>
+        <v>349524</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366500</v>
+        <v>366441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9624418374124839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9371220341189366</v>
+        <v>0.9346014913633331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9799944675695823</v>
+        <v>0.979835228390067</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>364</v>
@@ -1485,19 +1485,19 @@
         <v>381896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375398</v>
+        <v>374828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386002</v>
+        <v>385915</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9818619599108138</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9651551613904119</v>
+        <v>0.9636901025940914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9924184297498423</v>
+        <v>0.9921931839878538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>696</v>
@@ -1506,19 +1506,19 @@
         <v>741832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>729529</v>
+        <v>729853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>750216</v>
+        <v>750037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9723424117602495</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.956216053548174</v>
+        <v>0.956641623331992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9833316858460212</v>
+        <v>0.9830965107793935</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>8854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4239</v>
+        <v>4221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16231</v>
+        <v>16293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04164435020078788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01993821574938116</v>
+        <v>0.01985455413875627</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07633687852195561</v>
+        <v>0.07663242448755803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1631,19 +1631,19 @@
         <v>4092</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10086</v>
+        <v>9703</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01863332963533886</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004608454000640163</v>
+        <v>0.004598863173625112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04593250808022373</v>
+        <v>0.04418605571588386</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1652,19 +1652,19 @@
         <v>12946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6591</v>
+        <v>7232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21479</v>
+        <v>22748</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02995321800141796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01525012221403244</v>
+        <v>0.0167328081554971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04969676285837077</v>
+        <v>0.05263121720732011</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>203764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196387</v>
+        <v>196325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208379</v>
+        <v>208397</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9583556497992122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9236631214780443</v>
+        <v>0.9233675755124419</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9800617842506189</v>
+        <v>0.9801454458612436</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>208</v>
@@ -1702,19 +1702,19 @@
         <v>215499</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>209505</v>
+        <v>209888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218579</v>
+        <v>218581</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9813666703646612</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9540674919197762</v>
+        <v>0.9558139442841155</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9953915459993599</v>
+        <v>0.9954011368263749</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>396</v>
@@ -1723,19 +1723,19 @@
         <v>419263</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>410730</v>
+        <v>409461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425618</v>
+        <v>424977</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9700467819985821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9503032371416289</v>
+        <v>0.9473687827926793</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9847498777859675</v>
+        <v>0.9832671918445028</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>6233</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2092</v>
+        <v>3090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12546</v>
+        <v>12782</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02275079613544359</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007636074560313758</v>
+        <v>0.01127656548463466</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04579098032740339</v>
+        <v>0.0466521448165852</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5081</v>
+        <v>6279</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003909762861192576</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01827215685696108</v>
+        <v>0.02257783787026528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1869,19 +1869,19 @@
         <v>7321</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3128</v>
+        <v>3105</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14512</v>
+        <v>14714</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01326006638089319</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005665916726301574</v>
+        <v>0.005623900330903375</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02628673910866184</v>
+        <v>0.02665190218074489</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>267748</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261435</v>
+        <v>261199</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271889</v>
+        <v>270891</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9772492038645564</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9542090196725966</v>
+        <v>0.9533478551834146</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9923639254396863</v>
+        <v>0.9887234345153654</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -1919,7 +1919,7 @@
         <v>277009</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>273015</v>
+        <v>271817</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278096</v>
@@ -1928,7 +1928,7 @@
         <v>0.9960902371388074</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9817278431430392</v>
+        <v>0.9774221621297348</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1940,19 +1940,19 @@
         <v>544756</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537565</v>
+        <v>537363</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>548949</v>
+        <v>548972</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9867399336191068</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9737132608913376</v>
+        <v>0.9733480978192552</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9943340832736984</v>
+        <v>0.9943760996690967</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>11136</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5275</v>
+        <v>5931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18912</v>
+        <v>18782</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01680232054323909</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007959106765546776</v>
+        <v>0.008948018959280823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02853474538476057</v>
+        <v>0.02833731968003324</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2065,19 +2065,19 @@
         <v>5424</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2034</v>
+        <v>2047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12836</v>
+        <v>12469</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007817090389795887</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002931137023976953</v>
+        <v>0.002950444969545385</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01849902675163079</v>
+        <v>0.01797103670944649</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2086,19 +2086,19 @@
         <v>16560</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10016</v>
+        <v>9933</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26745</v>
+        <v>26685</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01220683169337669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007382705296399755</v>
+        <v>0.007321674986729309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01971410285685568</v>
+        <v>0.01966958183663802</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>651652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>643876</v>
+        <v>644006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>657513</v>
+        <v>656857</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.983197679456761</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9714652546152395</v>
+        <v>0.9716626803199667</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9920408932344532</v>
+        <v>0.9910519810407192</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>631</v>
@@ -2136,19 +2136,19 @@
         <v>688429</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>681017</v>
+        <v>681384</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>691819</v>
+        <v>691806</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9921829096102042</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9815009732483697</v>
+        <v>0.9820289632905534</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.997068862976023</v>
+        <v>0.9970495550304547</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1238</v>
@@ -2157,19 +2157,19 @@
         <v>1340081</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1329896</v>
+        <v>1329956</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1346625</v>
+        <v>1346708</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9877931683066233</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9802858971431445</v>
+        <v>0.9803304181633621</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9926172947036004</v>
+        <v>0.9926783250132707</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>11110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5343</v>
+        <v>5558</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20541</v>
+        <v>21512</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01425980604731692</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006858437269116282</v>
+        <v>0.007134171105880102</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02636455335608344</v>
+        <v>0.02761174521190018</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2282,19 +2282,19 @@
         <v>8720</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4115</v>
+        <v>4190</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15919</v>
+        <v>16579</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01061560945575915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00500944532597517</v>
+        <v>0.005100871941793687</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01938101370664278</v>
+        <v>0.02018378841795351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2303,19 +2303,19 @@
         <v>19829</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12023</v>
+        <v>11371</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32619</v>
+        <v>32918</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01238955479414648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007511900900994066</v>
+        <v>0.007104781561132398</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02038042586226113</v>
+        <v>0.02056711572357793</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>767988</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>758557</v>
+        <v>757586</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>773755</v>
+        <v>773540</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9857401939526831</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9736354466439165</v>
+        <v>0.9723882547880999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9931415627308838</v>
+        <v>0.9928658288941199</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>747</v>
@@ -2353,19 +2353,19 @@
         <v>812675</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>805476</v>
+        <v>804816</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>817280</v>
+        <v>817205</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9893843905442409</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9806189862933571</v>
+        <v>0.9798162115820465</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9949905546740248</v>
+        <v>0.9948991280582064</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1455</v>
@@ -2374,19 +2374,19 @@
         <v>1580664</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1567874</v>
+        <v>1567575</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1588470</v>
+        <v>1589122</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9876104452058535</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9796195741377391</v>
+        <v>0.9794328842764222</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9924880990990059</v>
+        <v>0.9928952184388679</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>70636</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>54455</v>
+        <v>54937</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>89446</v>
+        <v>90636</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0206130817852493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01589114116732287</v>
+        <v>0.01603160196711035</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02610206729284628</v>
+        <v>0.02644943730033504</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -2499,19 +2499,19 @@
         <v>38176</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27581</v>
+        <v>27185</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>53502</v>
+        <v>53006</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01074198558200681</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007760751412921431</v>
+        <v>0.007649202574002363</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0150544481864663</v>
+        <v>0.01491470250922162</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -2520,19 +2520,19 @@
         <v>108813</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>87439</v>
+        <v>89514</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>132410</v>
+        <v>134203</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01558764437698421</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01252576309711328</v>
+        <v>0.01282313836057377</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01896801043737251</v>
+        <v>0.01922489305009959</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>3356143</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3337333</v>
+        <v>3336143</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3372324</v>
+        <v>3371842</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9793869182147507</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9738979327071537</v>
+        <v>0.9735505626996648</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.984108858832677</v>
+        <v>0.9839683980328896</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3259</v>
@@ -2570,19 +2570,19 @@
         <v>3515740</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3500414</v>
+        <v>3500910</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3526335</v>
+        <v>3526731</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9892580144179932</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9849455518135337</v>
+        <v>0.9850852974907784</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9922392485870787</v>
+        <v>0.9923507974259979</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6404</v>
@@ -2591,19 +2591,19 @@
         <v>6871881</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6848284</v>
+        <v>6846491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6893255</v>
+        <v>6891180</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9844123556230158</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9810319895626275</v>
+        <v>0.9807751069499003</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9874742369028866</v>
+        <v>0.9871768616394262</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>4866</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1727</v>
+        <v>1742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11453</v>
+        <v>10380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01656603414602841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005877728964716456</v>
+        <v>0.005930598494333836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03898780791267472</v>
+        <v>0.0353348898383424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2960,19 +2960,19 @@
         <v>4524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1207</v>
+        <v>1145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12070</v>
+        <v>11474</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01567154268129791</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004181955094712049</v>
+        <v>0.003965508110136506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0418061990017404</v>
+        <v>0.03974482034516745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2981,19 +2981,19 @@
         <v>9391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4489</v>
+        <v>4301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16846</v>
+        <v>17667</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01612267220621905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007706096639406289</v>
+        <v>0.007383461787343872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0289224707536552</v>
+        <v>0.03033121382226754</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>288895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>282308</v>
+        <v>283381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292034</v>
+        <v>292019</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9834339658539716</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9610121920873249</v>
+        <v>0.9646651101616578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941222710352835</v>
+        <v>0.9940694015056663</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>273</v>
@@ -3031,19 +3031,19 @@
         <v>284179</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276633</v>
+        <v>277229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>287496</v>
+        <v>287558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9843284573187021</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9581938009982597</v>
+        <v>0.9602551796548325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9958180449052879</v>
+        <v>0.9960344918898635</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>534</v>
@@ -3052,19 +3052,19 @@
         <v>573073</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565618</v>
+        <v>564797</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>577975</v>
+        <v>578163</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9838773277937809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9710775292463448</v>
+        <v>0.9696687861777327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9922939033605943</v>
+        <v>0.9926165382126564</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>12548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6745</v>
+        <v>6644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21575</v>
+        <v>21859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02496779957936218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01342073135721444</v>
+        <v>0.01322054782405127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04292899502755978</v>
+        <v>0.04349460642908693</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3177,19 +3177,19 @@
         <v>7900</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3335</v>
+        <v>3434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15310</v>
+        <v>15904</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01510228055064516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006376571840134597</v>
+        <v>0.006564204128539334</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02926903888127521</v>
+        <v>0.0304038491090305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3198,19 +3198,19 @@
         <v>20448</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13106</v>
+        <v>12472</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31631</v>
+        <v>31145</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01993640675136875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01277796047870522</v>
+        <v>0.0121596641276405</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03083985955763852</v>
+        <v>0.03036548571992712</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>490027</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481000</v>
+        <v>480716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495830</v>
+        <v>495931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9750322004206379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9570710049724405</v>
+        <v>0.9565053935709136</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9865792686427856</v>
+        <v>0.9867794521759491</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>477</v>
@@ -3248,19 +3248,19 @@
         <v>515184</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>507774</v>
+        <v>507180</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>519749</v>
+        <v>519650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9848977194493549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9707309611187248</v>
+        <v>0.9695961508909695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9936234281598654</v>
+        <v>0.9934357958714607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -3269,19 +3269,19 @@
         <v>1005211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>994028</v>
+        <v>994514</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1012553</v>
+        <v>1013187</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9800635932486312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9691601404423614</v>
+        <v>0.9696345142800729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9872220395212947</v>
+        <v>0.9878403358723594</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>4936</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1826</v>
+        <v>1745</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10434</v>
+        <v>9964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01549533257814254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005731874018425905</v>
+        <v>0.005477516860731339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03275284040161373</v>
+        <v>0.03127783602066031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4980</v>
+        <v>4560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002680812096917525</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01480781806608853</v>
+        <v>0.01355754987748172</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -3415,19 +3415,19 @@
         <v>5838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2580</v>
+        <v>2525</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11501</v>
+        <v>11947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008914465729341438</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00393954476641751</v>
+        <v>0.003855994597117838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01756215611858436</v>
+        <v>0.01824384331907744</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>313629</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308131</v>
+        <v>308601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316739</v>
+        <v>316820</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9845046674218575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.967247159598386</v>
+        <v>0.9687221639793395</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9942681259815738</v>
+        <v>0.9945224831392686</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -3465,7 +3465,7 @@
         <v>335407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331329</v>
+        <v>331749</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3474,7 +3474,7 @@
         <v>0.9973191879030825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9851921819339111</v>
+        <v>0.9864424501225183</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3486,19 +3486,19 @@
         <v>649036</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643373</v>
+        <v>642927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652294</v>
+        <v>652349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9910855342706586</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9824378438814155</v>
+        <v>0.9817561566809225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9960604552335824</v>
+        <v>0.9961440054028822</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>6424</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2717</v>
+        <v>2771</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12859</v>
+        <v>12602</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01736279429296655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007344978653878634</v>
+        <v>0.007489994948383714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03475855333886785</v>
+        <v>0.03406203687828466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5829</v>
+        <v>6141</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002515378321385986</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01505043724851902</v>
+        <v>0.01585720596481796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3632,19 +3632,19 @@
         <v>7398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13980</v>
+        <v>13982</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009769298617596987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004746590385213504</v>
+        <v>0.004744387489232662</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01846181779039197</v>
+        <v>0.01846401388493536</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>363540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357105</v>
+        <v>357362</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367247</v>
+        <v>367193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9826372057070335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9652414466611321</v>
+        <v>0.9659379631217153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9926550213461212</v>
+        <v>0.9925100050516164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>357</v>
@@ -3682,7 +3682,7 @@
         <v>386309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>381454</v>
+        <v>381142</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>387283</v>
@@ -3691,7 +3691,7 @@
         <v>0.997484621678614</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9849495627514809</v>
+        <v>0.9841427940351795</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3703,19 +3703,19 @@
         <v>749849</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>743267</v>
+        <v>743265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753653</v>
+        <v>753654</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.990230701382403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9815381822096082</v>
+        <v>0.9815359861150643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9952534096147865</v>
+        <v>0.9952556125107672</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>3725</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1045</v>
+        <v>826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9154</v>
+        <v>8723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01763598914740875</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004948614641374824</v>
+        <v>0.003908866182293878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04334049398537521</v>
+        <v>0.04129699481369883</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3828,19 +3828,19 @@
         <v>6988</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3232</v>
+        <v>2413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14138</v>
+        <v>14357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03196713748160752</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01478405890168835</v>
+        <v>0.01104128481555538</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06467839501697349</v>
+        <v>0.06568165800716132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3849,19 +3849,19 @@
         <v>10713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5643</v>
+        <v>5488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19700</v>
+        <v>18560</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02492436612880093</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01312831778356126</v>
+        <v>0.01276825319118967</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04583352192537322</v>
+        <v>0.04318261275037972</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>207496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202067</v>
+        <v>202498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210176</v>
+        <v>210395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9823640108525913</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9566595060146248</v>
+        <v>0.9587030051863011</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9950513853586251</v>
+        <v>0.9960911338177061</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>217</v>
@@ -3899,19 +3899,19 @@
         <v>211599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204449</v>
+        <v>204230</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215355</v>
+        <v>216174</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9680328625183925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9353216049830264</v>
+        <v>0.9343183419928385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9852159410983115</v>
+        <v>0.9889587151844446</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>425</v>
@@ -3920,19 +3920,19 @@
         <v>419095</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>410108</v>
+        <v>411248</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424165</v>
+        <v>424320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9750756338711991</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9541664780746267</v>
+        <v>0.9568173872496203</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9868716822164386</v>
+        <v>0.9872317468088103</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>5624</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2084</v>
+        <v>2127</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11617</v>
+        <v>11578</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02137322941945146</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007918710051218119</v>
+        <v>0.008085349002509037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04415167346243838</v>
+        <v>0.04400253959481314</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4045,19 +4045,19 @@
         <v>8950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4382</v>
+        <v>4213</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17050</v>
+        <v>17048</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03276908903695754</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01604378086887922</v>
+        <v>0.01542546673719758</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06242881087633006</v>
+        <v>0.06241902566096278</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -4066,19 +4066,19 @@
         <v>14574</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8295</v>
+        <v>8666</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24478</v>
+        <v>24267</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02717733171474561</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01546835843574488</v>
+        <v>0.01616074751372033</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04564836541725301</v>
+        <v>0.04525370048680382</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>257499</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251506</v>
+        <v>251545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261039</v>
+        <v>260996</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9786267705805486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9558483265375616</v>
+        <v>0.9559974604051865</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9920812899487819</v>
+        <v>0.9919146509974905</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -4116,19 +4116,19 @@
         <v>264165</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256065</v>
+        <v>256067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268733</v>
+        <v>268902</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9672309109630425</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9375711891236695</v>
+        <v>0.9375809743390373</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9839562191311207</v>
+        <v>0.9845745332628024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>508</v>
@@ -4137,19 +4137,19 @@
         <v>521664</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>511760</v>
+        <v>511971</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>527943</v>
+        <v>527572</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9728226682852544</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9543516345827476</v>
+        <v>0.9547462995131961</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9845316415642551</v>
+        <v>0.9838392524862797</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>10017</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5332</v>
+        <v>4977</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18919</v>
+        <v>18211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01525687019381714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008121440049275964</v>
+        <v>0.007580572429941925</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0288148722838376</v>
+        <v>0.02773681568133454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4262,19 +4262,19 @@
         <v>4767</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1260</v>
+        <v>1214</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11932</v>
+        <v>11260</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006895480350367016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001822942099388952</v>
+        <v>0.001756191049237183</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01726086631661582</v>
+        <v>0.01628805830299856</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4283,19 +4283,19 @@
         <v>14784</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8163</v>
+        <v>7806</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25228</v>
+        <v>24280</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01096843300270741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006056414966808366</v>
+        <v>0.005791759804267962</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01871694993393743</v>
+        <v>0.01801348719389072</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>646541</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637639</v>
+        <v>638347</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>651226</v>
+        <v>651581</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9847431298061828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9711851277161624</v>
+        <v>0.9722631843186654</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.991878559950724</v>
+        <v>0.992419427570058</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>642</v>
@@ -4333,19 +4333,19 @@
         <v>686527</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>679362</v>
+        <v>680034</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>690034</v>
+        <v>690080</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.993104519649633</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9827391336833845</v>
+        <v>0.9837119416970014</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9981770579006111</v>
+        <v>0.9982438089507628</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1213</v>
@@ -4354,19 +4354,19 @@
         <v>1333068</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1322624</v>
+        <v>1323572</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1339689</v>
+        <v>1340046</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9890315669972926</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9812830500660632</v>
+        <v>0.9819865128061092</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9939435850331917</v>
+        <v>0.994208240195732</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>18634</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11532</v>
+        <v>11649</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29104</v>
+        <v>29324</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02393332172186642</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.014811139314102</v>
+        <v>0.0149611600147508</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03738019508135785</v>
+        <v>0.03766357348545969</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -4479,19 +4479,19 @@
         <v>9547</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4477</v>
+        <v>4591</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17608</v>
+        <v>19039</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01155556960896124</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005419371224561478</v>
+        <v>0.005557498618481788</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02131268833217902</v>
+        <v>0.02304494360196979</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -4500,19 +4500,19 @@
         <v>28181</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18579</v>
+        <v>19051</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40843</v>
+        <v>41479</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01756093327365543</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01157747661679923</v>
+        <v>0.0118714237328054</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02545111270868356</v>
+        <v>0.02584771423252394</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>759949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>749479</v>
+        <v>749259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767051</v>
+        <v>766934</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9760666782781335</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9626198049186413</v>
+        <v>0.9623364265145404</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9851888606858979</v>
+        <v>0.9850388399852492</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>747</v>
@@ -4550,19 +4550,19 @@
         <v>816620</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>808559</v>
+        <v>807128</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>821690</v>
+        <v>821576</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9884444303910388</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9786873116678209</v>
+        <v>0.9769550563980305</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9945806287754384</v>
+        <v>0.9944425013815182</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1479</v>
@@ -4571,19 +4571,19 @@
         <v>1576569</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1563907</v>
+        <v>1563271</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1586171</v>
+        <v>1585699</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9824390667263446</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9745488872913164</v>
+        <v>0.974152285767476</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9884225233832008</v>
+        <v>0.9881285762671945</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>66775</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52262</v>
+        <v>52161</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86593</v>
+        <v>83942</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01967225099307931</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01539665724187915</v>
+        <v>0.01536709509836435</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02551082475248932</v>
+        <v>0.02473006492716175</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -4696,19 +4696,19 @@
         <v>44551</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31598</v>
+        <v>31871</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60551</v>
+        <v>59844</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01256887126363109</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008914492141554915</v>
+        <v>0.008991449897761171</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01708279397779573</v>
+        <v>0.01688345805007661</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>106</v>
@@ -4717,19 +4717,19 @@
         <v>111325</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>90934</v>
+        <v>91109</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>133524</v>
+        <v>132483</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01604368514360648</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01310501771838528</v>
+        <v>0.01313024554139002</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0192428113423527</v>
+        <v>0.0190927638453506</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>3327575</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3307757</v>
+        <v>3310408</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3342088</v>
+        <v>3342189</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9803277490069207</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9744891752475107</v>
+        <v>0.9752699350728382</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9846033427581209</v>
+        <v>0.9846329049016357</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3299</v>
@@ -4767,19 +4767,19 @@
         <v>3499991</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3483991</v>
+        <v>3484698</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3512944</v>
+        <v>3512671</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.987431128736369</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9829172060222046</v>
+        <v>0.9831165419499235</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9910855078584452</v>
+        <v>0.9910085501022389</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6463</v>
@@ -4788,19 +4788,19 @@
         <v>6827567</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6805368</v>
+        <v>6806409</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6847958</v>
+        <v>6847783</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9839563148563936</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9807571886576475</v>
+        <v>0.9809072361546494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.986894982281615</v>
+        <v>0.9868697544586099</v>
       </c>
     </row>
     <row r="30">
